--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -3531,7 +3531,1248 @@
           <t>21:17:48</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>336</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>07/29/2024</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>21:31:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>337</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>07/29/2024</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>21:39:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>338</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>07/29/2024</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>23:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>339</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>11:39:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>340</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>11:41:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>341</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>11:42:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>342</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>11:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>343</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>11:46:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>344</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>12:04:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>345</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>12:04:31</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>45325446</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>346</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>14:57:33</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>32222222</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>347</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>14:57:44</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>231111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>348</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>14:57:50</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2311114444</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>349</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>15:03:39</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2311114444</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>350</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>105.0314285152173</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>15:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>351</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>107.910093893161</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>15:08:35</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>33322222</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>352</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>111.3187619064996</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>15:08:36</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>33322222</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>353</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>111.3187619064996</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>15:08:39</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>33322222</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>354</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>113.9469328977034</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>07/30/2024</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>15:08:41</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>33322222</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="measured_current">Sheet1!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1782,32 +1782,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13.5546875" customWidth="1" min="3" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14.21875" customWidth="1" min="6" max="6"/>
-    <col width="22.77734375" customWidth="1" min="7" max="7"/>
-    <col width="21.44140625" customWidth="1" min="8" max="8"/>
-    <col width="18.33203125" customWidth="1" min="9" max="9"/>
-    <col width="17.5546875" customWidth="1" min="10" max="10"/>
-    <col width="16.5546875" customWidth="1" min="11" max="11"/>
-    <col width="15.5546875" customWidth="1" min="12" max="12"/>
-    <col width="15.21875" customWidth="1" min="13" max="13"/>
-    <col width="16.33203125" customWidth="1" min="14" max="14"/>
-    <col width="29.44140625" customWidth="1" min="15" max="15"/>
-    <col width="26.88671875" customWidth="1" min="16" max="16"/>
-    <col width="18.109375" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="12.44140625" customWidth="1" min="19" max="19"/>
-    <col width="15.109375" customWidth="1" min="20" max="20"/>
+    <col width="13.5546875" customWidth="1" min="3" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14.21875" customWidth="1" min="8" max="11"/>
+    <col width="22.77734375" customWidth="1" min="12" max="12"/>
+    <col width="21.44140625" customWidth="1" min="13" max="13"/>
+    <col width="18.33203125" customWidth="1" min="14" max="14"/>
+    <col width="17.5546875" customWidth="1" min="15" max="15"/>
+    <col width="16.5546875" customWidth="1" min="16" max="16"/>
+    <col width="15.5546875" customWidth="1" min="17" max="17"/>
+    <col width="15.21875" customWidth="1" min="18" max="18"/>
+    <col width="16.33203125" customWidth="1" min="19" max="19"/>
+    <col width="29.44140625" customWidth="1" min="20" max="20"/>
+    <col width="26.88671875" customWidth="1" min="21" max="21"/>
+    <col width="18.109375" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+    <col width="12.44140625" customWidth="1" min="24" max="24"/>
+    <col width="15.109375" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1819,6 +1819,8 @@
       <c r="B1" s="1" t="n"/>
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1843,80 +1845,105 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Imp</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vmp</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Uoc</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Isc</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Recurrence</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Temperature Ambient</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Temperature Lamps</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Pmpp Reference</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Pmpp Deviation</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Uoc Reference</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Uoc Deviation</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Isc Reference</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Isc Deviation</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Temperature Ambient Reference</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Temperature Lamps Reference</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Reference Number</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Serial Number</t>
         </is>
@@ -1935,56 +1962,56 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>07/18/2024</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>13:46:06</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>00000001</t>
         </is>
@@ -2003,56 +2030,56 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>07/18/2024</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>13:46:44</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>00000001</t>
         </is>
@@ -2071,56 +2098,56 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>07/18/2024</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>13:48:15</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>00000001</t>
         </is>
@@ -2139,51 +2166,51 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>07/22/2024</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>09:59:04</t>
         </is>
@@ -2202,56 +2229,56 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>11:01:38</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>02314352</t>
         </is>
@@ -2270,56 +2297,56 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>11:02:41</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>0231435234</t>
         </is>
@@ -2338,51 +2365,51 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>12:12:14</t>
         </is>
@@ -2401,51 +2428,51 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>15:27:15</t>
         </is>
@@ -2464,56 +2491,56 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>15:28:03</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>00000003</t>
         </is>
@@ -2532,51 +2559,51 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>15:59:36</t>
         </is>
@@ -2595,51 +2622,51 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>16:16:18</t>
         </is>
@@ -2658,51 +2685,51 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>16:20:53</t>
         </is>
@@ -2721,51 +2748,51 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>16:21:08</t>
         </is>
@@ -2784,51 +2811,51 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>16:22:11</t>
         </is>
@@ -2847,51 +2874,51 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>16:23:52</t>
         </is>
@@ -2910,51 +2937,51 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16:24:42</t>
         </is>
@@ -2973,51 +3000,51 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>16:56:04</t>
         </is>
@@ -3036,51 +3063,51 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>07/24/2024</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>17:56:55</t>
         </is>
@@ -3099,51 +3126,51 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="inlineStr">
         <is>
           <t>07/25/2024</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>08:34:37</t>
         </is>
@@ -3162,56 +3189,56 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="inlineStr">
         <is>
           <t>07/25/2024</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>08:35:01</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="Y22" t="inlineStr">
         <is>
           <t>05648231</t>
         </is>
@@ -3230,51 +3257,51 @@
       <c r="D23" t="n">
         <v>0.00476527784788</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t>07/25/2024</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>11:23:39</t>
         </is>
@@ -3293,51 +3320,51 @@
       <c r="D24" t="n">
         <v>0.006438130211520001</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t>07/25/2024</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>11:24:07</t>
         </is>
@@ -3356,51 +3383,51 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t>07/27/2024</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>20:16:37</t>
         </is>
@@ -3419,51 +3446,51 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>07/29/2024</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="X26" t="inlineStr">
         <is>
           <t>21:17:30</t>
         </is>
@@ -3482,51 +3509,51 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>07/29/2024</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>21:17:48</t>
         </is>
@@ -3545,51 +3572,51 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t>07/29/2024</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>21:31:08</t>
         </is>
@@ -3608,51 +3635,51 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>07/29/2024</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>21:39:14</t>
         </is>
@@ -3671,51 +3698,51 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="inlineStr">
         <is>
           <t>07/29/2024</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>23:05:27</t>
         </is>
@@ -3734,51 +3761,51 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>11:39:35</t>
         </is>
@@ -3797,51 +3824,51 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="X32" t="inlineStr">
         <is>
           <t>11:41:39</t>
         </is>
@@ -3860,51 +3887,51 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="X33" t="inlineStr">
         <is>
           <t>11:42:37</t>
         </is>
@@ -3923,51 +3950,51 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>11:45:09</t>
         </is>
@@ -3986,51 +4013,51 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>11:46:17</t>
         </is>
@@ -4049,51 +4076,51 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>12:04:10</t>
         </is>
@@ -4112,56 +4139,56 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>12:04:31</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>45325446</t>
         </is>
@@ -4180,56 +4207,56 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>14:57:33</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="Y38" t="inlineStr">
         <is>
           <t>32222222</t>
         </is>
@@ -4248,56 +4275,56 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>14:57:44</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>231111111</t>
         </is>
@@ -4316,56 +4343,56 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>14:57:50</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="Y40" t="inlineStr">
         <is>
           <t>2311114444</t>
         </is>
@@ -4384,56 +4411,56 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>15:03:39</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="Y41" t="inlineStr">
         <is>
           <t>2311114444</t>
         </is>
@@ -4452,51 +4479,51 @@
       <c r="D42" t="n">
         <v>105.0314285152173</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>15:08:29</t>
         </is>
@@ -4515,56 +4542,56 @@
       <c r="D43" t="n">
         <v>107.910093893161</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>15:08:35</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="Y43" t="inlineStr">
         <is>
           <t>33322222</t>
         </is>
@@ -4583,56 +4610,56 @@
       <c r="D44" t="n">
         <v>111.3187619064996</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>15:08:36</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="Y44" t="inlineStr">
         <is>
           <t>33322222</t>
         </is>
@@ -4651,56 +4678,56 @@
       <c r="D45" t="n">
         <v>111.3187619064996</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>15:08:39</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="Y45" t="inlineStr">
         <is>
           <t>33322222</t>
         </is>
@@ -4719,60 +4746,138 @@
       <c r="D46" t="n">
         <v>113.9469328977034</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>31.0654</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>9.933199999999999</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>4.3456</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="inlineStr">
         <is>
           <t>07/30/2024</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>15:08:41</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="Y46" t="inlineStr">
         <is>
           <t>33322222</t>
         </is>
       </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>355</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>113.1146996035749</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-7.633320652666145</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-14.81854421562475</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>08:25:40</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
@@ -4877,7 +4877,1296 @@
           <t>08:25:40</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>356</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>106.2839329346839</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.313647496265475</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16.83399857175284</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>08:43:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>357</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>110.4168030490971</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-7.70689716384614</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-14.32701133824309</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>09:18:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>358</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>109.6914935554346</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-8.835359885038077</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-12.4150566567399</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>09:19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>359</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>114.4091687990248</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-7.446358340913696</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-15.36444575469979</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>09:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>360</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>114.0447708156294</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-7.58578535957977</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-15.03400971813776</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>09:21:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>361</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>09:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>362</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>09:23:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>363</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>09:24:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>364</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>113.8505449363667</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-6.962378108796952</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-16.35224964190277</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>09:35:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>365</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>111.5695300811743</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7.482827192675669</v>
+      </c>
+      <c r="F57" t="n">
+        <v>14.91007706156581</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>12:13:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>366</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>111.5695300811743</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.482827192675669</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14.91007706156581</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>12:14:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>367</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>100.8855175647748</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.804068554114847</v>
+      </c>
+      <c r="F59" t="n">
+        <v>14.82723414122026</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>12:23:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>368</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>104.4776171689726</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-7.603600216744854</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-13.74054581918828</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>12:40:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>369</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.4138066661412248</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.02105304910722933</v>
+      </c>
+      <c r="F61" t="n">
+        <v>19.65542682362002</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>12:43:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>370</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>116.245385850321</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-7.062784176985799</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-16.45886139762114</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>12:44:34</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>766788789</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>371</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>114.4083714230076</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.661614768843688</v>
+      </c>
+      <c r="F63" t="n">
+        <v>17.17427011211974</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>07/31/2024</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>19:19:27</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>0003424</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
@@ -6168,6 +6168,256 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>372</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>20</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>14:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>373</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>20</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>14:30:14</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>42442344</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>374</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>40.20000000000001</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>14:31:23</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>42442331</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
@@ -6418,6 +6418,686 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>375</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>20</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>14:48:30</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>74824772</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>376</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>20</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>14:59:26</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>42442433</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>377</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>20</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>10</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>15:07:31</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>67689709</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>378</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>20</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>15:08:58</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>00900909</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>379</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>15:10:10</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>00900909</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>380</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>40.20000000000001</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>15:14:25</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>98989898</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>381</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>15:15:37</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>78378827</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>382</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>120</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>60</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>17:01:51</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>89822222</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1269,6 +1269,91 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>320</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60.04570125199643</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.950653086769675</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.34996981557511</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20.59779910690931</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.972891669681834</v>
+      </c>
+      <c r="I10" t="n">
+        <v>98.0577714806865</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>22:21:31</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>32213123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -58,13 +58,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,10 +437,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -445,7 +451,7 @@
     <col width="10.109375" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10.33203125" customWidth="1" min="8" max="9"/>
-    <col width="10.21875" customWidth="1" min="10" max="10"/>
+    <col width="10.21875" customWidth="1" style="1" min="10" max="10"/>
     <col width="10.77734375" customWidth="1" min="11" max="11"/>
     <col width="19.77734375" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
@@ -458,8 +464,9 @@
     <col width="27.5546875" customWidth="1" min="20" max="20"/>
     <col width="17.109375" customWidth="1" min="21" max="21"/>
     <col width="20.109375" customWidth="1" min="22" max="22"/>
-    <col width="11.6640625" customWidth="1" min="23" max="23"/>
-    <col width="10.33203125" customWidth="1" min="24" max="24"/>
+    <col width="11.6640625" customWidth="1" style="4" min="23" max="23"/>
+    <col width="10.33203125" customWidth="1" style="1" min="24" max="24"/>
+    <col width="15.44140625" customWidth="1" style="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
@@ -573,7 +580,7 @@
           <t>Reference Number</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -658,7 +665,7 @@
       <c r="V2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
@@ -743,7 +750,7 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" s="1" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
@@ -787,7 +794,7 @@
       <c r="I4" t="n">
         <v>50008.13771319024</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -828,17 +835,17 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="1" t="inlineStr">
         <is>
           <t>14:42:51</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="1" t="inlineStr">
         <is>
           <t>77778778</t>
         </is>
@@ -872,7 +879,7 @@
       <c r="I5" t="n">
         <v>57109.7392199056</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -913,17 +920,17 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="1" t="inlineStr">
         <is>
           <t>14:46:43</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="1" t="inlineStr">
         <is>
           <t>67667677</t>
         </is>
@@ -957,7 +964,7 @@
       <c r="I6" t="n">
         <v>177.8831655198153</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -998,17 +1005,17 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="1" t="inlineStr">
         <is>
           <t>14:50:26</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="1" t="inlineStr">
         <is>
           <t>87778887</t>
         </is>
@@ -1042,7 +1049,7 @@
       <c r="I7" t="n">
         <v>177.3644841210746</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1083,17 +1090,17 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="1" t="inlineStr">
         <is>
           <t>15:05:23</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="1" t="inlineStr">
         <is>
           <t>88898778</t>
         </is>
@@ -1127,7 +1134,7 @@
       <c r="I8" t="n">
         <v>47242.9410531517</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1168,17 +1175,17 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="1" t="inlineStr">
         <is>
           <t>15:11:11</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="1" t="inlineStr">
         <is>
           <t>78878878</t>
         </is>
@@ -1212,7 +1219,7 @@
       <c r="I9" t="n">
         <v>44350.23534292676</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1253,17 +1260,17 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="1" t="inlineStr">
         <is>
           <t>15:14:27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="1" t="inlineStr">
         <is>
           <t>77787878</t>
         </is>
@@ -1297,7 +1304,7 @@
       <c r="I10" t="n">
         <v>98.0577714806865</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1338,20 +1345,866 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>08/05/2024</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="1" t="inlineStr">
         <is>
           <t>22:21:31</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="1" t="inlineStr">
         <is>
           <t>32213123</t>
         </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>321</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61.16306560488792</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.97267364613231</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.57510271417316</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20.57814662661027</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.983419365520796</v>
+      </c>
+      <c r="I11" t="n">
+        <v>99.62507998739409</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X11" s="1" t="inlineStr">
+        <is>
+          <t>22:28:52</t>
+        </is>
+      </c>
+      <c r="Y11" s="1" t="inlineStr">
+        <is>
+          <t>73746234</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>322</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.23624821907666</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.986284805304969</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.50582988946462</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.59728946540005</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.986284805304969</v>
+      </c>
+      <c r="I12" t="n">
+        <v>99.55596304994853</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X12" s="1" t="inlineStr">
+        <is>
+          <t>22:32:07</t>
+        </is>
+      </c>
+      <c r="Y12" s="1" t="inlineStr">
+        <is>
+          <t>89899898</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>323</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.19496190922577</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.977913139537336</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.21380714904867</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20.60056738429923</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.979678628935423</v>
+      </c>
+      <c r="I13" t="n">
+        <v>98.06443623236811</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>22:43:34</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>77787878</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>324</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>59.84023546393449</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.974016808658174</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.12101454494919</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20.59097732850665</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.985859301669534</v>
+      </c>
+      <c r="I14" t="n">
+        <v>97.33006066975462</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>22:45:41</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>77787878</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>325</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60.94907731932997</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.96579753777399</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20.55065342224133</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20.59780050370591</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.986073010099359</v>
+      </c>
+      <c r="I15" t="n">
+        <v>99.09365919936724</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>22:46:13</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>77787878</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>326</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60.09393129394171</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.928480920116681</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.52051317156861</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20.57807844993422</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.966944996081977</v>
+      </c>
+      <c r="I16" t="n">
+        <v>98.42746557263875</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>22:54:48</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>77787878</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>327</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60.86522187270952</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.97533207753893</v>
+      </c>
+      <c r="F17" t="n">
+        <v>20.45661468586548</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20.59935423885047</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.985510200149255</v>
+      </c>
+      <c r="I17" t="n">
+        <v>98.96851279112971</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>22:55:35</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>77787878</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>328</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>60.88996803478287</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.96964501898343</v>
+      </c>
+      <c r="F18" t="n">
+        <v>20.5041234374965</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20.59111789711003</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.98152639127484</v>
+      </c>
+      <c r="I18" t="n">
+        <v>99.18069858573928</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>22:57:09</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>77787878</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>329</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>60.38034851320315</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.953515135631469</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20.4435547950201</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20.59395514758143</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.985626074683443</v>
+      </c>
+      <c r="I19" t="n">
+        <v>98.2020237732488</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>23:03:02</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>77787878</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>330</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>60.38034851320315</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.953515135631469</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20.4435547950201</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.60021144313001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.976788275405967</v>
+      </c>
+      <c r="I20" t="n">
+        <v>98.46366362292132</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>23:03:42</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>77787878</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="97" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
@@ -2207,6 +2207,1085 @@
         <v>77787878</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>331</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60.23565567474969</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.980581441896339</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20.20936412877411</v>
+      </c>
+      <c r="G21" t="n">
+        <v>20.59671192219509</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.985035811089797</v>
+      </c>
+      <c r="I21" t="n">
+        <v>97.97295375712184</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>07:58:30</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>87888787</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>332</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>60.71987376286185</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.956399881155447</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20.53845088747966</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20.59948495338983</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.981467721405963</v>
+      </c>
+      <c r="I22" t="n">
+        <v>98.86541330075522</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>07:59:27</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>87888787</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>333</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>61.16952206886423</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.98379545895251</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20.5005748250379</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20.59992543693294</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.985423658970361</v>
+      </c>
+      <c r="I23" t="n">
+        <v>99.46343843775377</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>08:02:59</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>78748778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>334</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>59.6699722004272</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.937219542054554</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20.31512161283276</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20.59890309052264</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.981647812132767</v>
+      </c>
+      <c r="I24" t="n">
+        <v>97.15281687405624</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>08:09:11</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>77787878</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>335</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>60.94629040650507</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.978907845108321</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20.45927352421636</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.59881441906867</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.98226612142018</v>
+      </c>
+      <c r="I25" t="n">
+        <v>99.21073265688582</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>08:10:34</t>
+        </is>
+      </c>
+      <c r="Y25" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>336</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60.85269473074343</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.959237119978438</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20.56364267665946</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20.59005870655117</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.980656267184362</v>
+      </c>
+      <c r="I26" t="n">
+        <v>99.15402179146341</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>08:27:23</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>337</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61.12470803307761</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.983332526736706</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20.48873448912461</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20.600957544028</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.984444805519905</v>
+      </c>
+      <c r="I27" t="n">
+        <v>99.41818703024421</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>08:27:57</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>338</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>61.08409790182642</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.981855461068433</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20.48526452718781</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20.58591633548785</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.98303088809054</v>
+      </c>
+      <c r="I28" t="n">
+        <v>99.47185359282592</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>08:30:39</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>339</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>60.84108813465602</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.97602281557831</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20.44375729116619</v>
+      </c>
+      <c r="G29" t="n">
+        <v>20.59945986409674</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.97602281557831</v>
+      </c>
+      <c r="I29" t="n">
+        <v>99.24414244859922</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>08:32:30</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>340</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>60.84108813465602</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.97602281557831</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20.44375729116619</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20.59500321539652</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.970877006192947</v>
+      </c>
+      <c r="I30" t="n">
+        <v>99.43755476890291</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>08:33:16</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
+        <v>78787879</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>341</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>60.74826723834435</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.970291587136603</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20.45195411165219</v>
+      </c>
+      <c r="G31" t="n">
+        <v>20.59052536317293</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.970291587136603</v>
+      </c>
+      <c r="I31" t="n">
+        <v>99.32701449294447</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>08:50:02</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>78788787</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>342</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60.89492000855819</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.95781195990708</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20.5878266887768</v>
+      </c>
+      <c r="G32" t="n">
+        <v>20.59665177396413</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.984264929440402</v>
+      </c>
+      <c r="I32" t="n">
+        <v>99.0711177020884</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>08:50:32</t>
+        </is>
+      </c>
+      <c r="Y32" t="n">
+        <v>78788787</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>343</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>59.77632742522797</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.977150077931716</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20.07837222191894</v>
+      </c>
+      <c r="G33" t="n">
+        <v>20.58230830842616</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.978798371514674</v>
+      </c>
+      <c r="I33" t="n">
+        <v>97.49762620914386</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>08:51:02</t>
+        </is>
+      </c>
+      <c r="Y33" t="n">
+        <v>78788787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="97" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
@@ -3286,6 +3286,919 @@
         <v>78788787</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>344</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60.90704168778955</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.957445681356526</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20.5944751823312</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20.5944751823312</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.98047940625125</v>
+      </c>
+      <c r="I34" t="n">
+        <v>99.22718053859344</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>09:19:58</t>
+        </is>
+      </c>
+      <c r="Y34" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>345</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60.78443129113474</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.960020887396692</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20.53513593432579</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20.59884533396587</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.960020887396692</v>
+      </c>
+      <c r="I35" t="n">
+        <v>99.69071373367214</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>09:57:47</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>346</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>59.94649791491501</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.961127311727978</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20.24448515857057</v>
+      </c>
+      <c r="G36" t="n">
+        <v>20.60073604601434</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.973570713840034</v>
+      </c>
+      <c r="I36" t="n">
+        <v>97.85945847873711</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>10:44:13</t>
+        </is>
+      </c>
+      <c r="Y36" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>347</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>45.7269060724</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.59918</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.92918</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9.22076</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.49524</v>
+      </c>
+      <c r="I37" t="n">
+        <v>66.16366524528027</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>10:50:12</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
+        <v>56655655</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>348</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>45.24702514649999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.82567</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6.62895</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.202579999999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7.44708</v>
+      </c>
+      <c r="I38" t="n">
+        <v>66.02287167855478</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>10:51:27</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
+        <v>56655655</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>349</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>44.75405397599999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.52734</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.8564</v>
+      </c>
+      <c r="G39" t="n">
+        <v>9.18843</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7.44527</v>
+      </c>
+      <c r="I39" t="n">
+        <v>65.42001182816094</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>10:52:44</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
+        <v>56655655</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>350</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>58.68546317911218</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.882593236590958</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20.35856548685842</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20.59908581486474</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.983349833090027</v>
+      </c>
+      <c r="I40" t="n">
+        <v>95.49451058043019</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>11:48:27</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>351</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.109848014999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.40895</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6.4657</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.74112</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.95837</v>
+      </c>
+      <c r="I41" t="n">
+        <v>53.21686680489526</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>12:06:51</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
+        <v>90909090</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>352</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8.882546425200001</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.44116</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.16347</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.692600000000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.95047</v>
+      </c>
+      <c r="I42" t="n">
+        <v>52.39001413903218</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>12:09:05</t>
+        </is>
+      </c>
+      <c r="Y42" t="n">
+        <v>78788787</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>353</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20.149247613</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.86278</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.03835</v>
+      </c>
+      <c r="G43" t="n">
+        <v>9.436579999999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.83052</v>
+      </c>
+      <c r="I43" t="n">
+        <v>55.74250399366277</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>12:13:29</t>
+        </is>
+      </c>
+      <c r="Y43" t="n">
+        <v>89898989</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>354</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>19.88922243</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.761</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.20363</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.39767</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.82491</v>
+      </c>
+      <c r="I44" t="n">
+        <v>55.33200319613595</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>08/06/2024</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>12:14:24</t>
+        </is>
+      </c>
+      <c r="Y44" t="n">
+        <v>78787878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="97" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
@@ -4199,6 +4199,172 @@
         <v>78787878</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>355</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>59.96312292658278</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.95712994969438</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20.2774730724228</v>
+      </c>
+      <c r="G45" t="n">
+        <v>20.59862307985247</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.962246219468626</v>
+      </c>
+      <c r="I45" t="n">
+        <v>98.27089207310399</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>16:31:44</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>43434343</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>356</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>59.2571063992564</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.982828008372993</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19.86608219881194</v>
+      </c>
+      <c r="G46" t="n">
+        <v>20.57374411869467</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.982828008372993</v>
+      </c>
+      <c r="I46" t="n">
+        <v>96.56036394834085</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>08/09/2024</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>09:36:28</t>
+        </is>
+      </c>
+      <c r="Y46" t="n">
+        <v>77373647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
